--- a/wash_P/SUR.xlsx
+++ b/wash_P/SUR.xlsx
@@ -76795,10 +76795,10 @@
         <v>0</v>
       </c>
       <c r="ACZ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADB24" t="n">
         <v>0</v>
@@ -76813,10 +76813,10 @@
         <v>0</v>
       </c>
       <c r="ADF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADH24" t="n">
         <v>0</v>
@@ -79926,7 +79926,7 @@
         <v>0</v>
       </c>
       <c r="ADA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADB25" t="n">
         <v>0</v>
@@ -79944,7 +79944,7 @@
         <v>0</v>
       </c>
       <c r="ADG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADH25" t="n">
         <v>0</v>
